--- a/_project_settings/teachers_students_data.xlsx
+++ b/_project_settings/teachers_students_data.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madco\OneDrive\Desktop\_project_settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\code\homeworkbot\_project_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBB9A4E-B346-443C-8748-BB59419BF2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93283103-F43E-447A-A613-CDEB5170BC45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9915" windowHeight="4110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="teachers" sheetId="1" r:id="rId1"/>
     <sheet name="students" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,9 +36,6 @@
     <t>ТМП</t>
   </si>
   <si>
-    <t>Чернышев Станислав Андреевич</t>
-  </si>
-  <si>
     <t>Предмет (сокр.)</t>
   </si>
   <si>
@@ -86,12 +82,15 @@
   </si>
   <si>
     <t>Касимова Марья Ринадовна</t>
+  </si>
+  <si>
+    <t>Рассказов Юрий Сергеевич</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673C9651-022E-4CC2-95AF-EEF5A131EA84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,21 +478,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>5834764205</v>
+        <v>591260097</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -502,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -511,10 +510,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFBA49D-5F50-4C68-92D3-7B4A8F354567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -530,18 +529,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -549,10 +548,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -560,10 +559,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -571,10 +570,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -582,10 +581,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -593,10 +592,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -604,10 +603,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -615,10 +614,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -626,10 +625,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -637,10 +636,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -648,10 +647,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -659,10 +658,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>

--- a/_project_settings/teachers_students_data.xlsx
+++ b/_project_settings/teachers_students_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9915" windowHeight="4110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9915" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="teachers" sheetId="1" r:id="rId1"/>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
